--- a/biology/Zoologie/Anserini/Anserini.xlsx
+++ b/biology/Zoologie/Anserini/Anserini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Vraies » oies
 Anserini est une tribu d'oiseaux ansériformes de la famille des Anatidae. Elle comprend la plupart des espèces d'oies et les bernaches.
@@ -512,11 +524,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette tribu a été décrite en 1760 par le zoologiste français Mathurin Jacques Brisson (1723-1806)[1].
-Liste des genres et espèces actuelles
-Les trois genres qui sont généralement compris dans cette tribu[2] ont pour espèces actuelles selon la version 5.2 du Congrès ornithologique international[3] et Alan P. Peterson[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette tribu a été décrite en 1760 par le zoologiste français Mathurin Jacques Brisson (1723-1806).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anserini</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anserini</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les trois genres qui sont généralement compris dans cette tribu ont pour espèces actuelles selon la version 5.2 du Congrès ornithologique international et Alan P. Peterson :
 Genre Anser Brisson, 1760
 Anser cygnoides (Linnaeus, 1758) – l'Oie cygnoïde
 Anser fabalis (Latham, 1787) – l'Oie des moissons
